--- a/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="299">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1799,7 +1799,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1842,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1906,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1966,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2032,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2095,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2193,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2252,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2317,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2360,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2435,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2621,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2687,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2745,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2811,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2867,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2942,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2985,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3051,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3107,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3205,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3268,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3334,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K402" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K403" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3712,12 +3712,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K402"/>
+  <dimension ref="A2:K403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A343" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A370" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
+      <selection pane="bottomLeft" activeCell="E381" sqref="E381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,7 +3878,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>54.562999999999946</v>
+        <v>57.312999999999946</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3888,7 +3888,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>180</v>
+        <v>182.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12090,13 +12090,15 @@
       <c r="B377" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C377" s="13"/>
+      <c r="C377" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D377" s="39"/>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G377" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H377" s="39">
         <v>1</v>
@@ -12112,13 +12114,15 @@
         <v>45108</v>
       </c>
       <c r="B378" s="20"/>
-      <c r="C378" s="13"/>
+      <c r="C378" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D378" s="39"/>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G378" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
@@ -12130,13 +12134,15 @@
         <v>45139</v>
       </c>
       <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D379" s="39"/>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H379" s="39"/>
       <c r="I379" s="9"/>
@@ -12147,7 +12153,9 @@
       <c r="A380" s="40">
         <v>45170</v>
       </c>
-      <c r="B380" s="20"/>
+      <c r="B380" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C380" s="13"/>
       <c r="D380" s="39"/>
       <c r="E380" s="9"/>
@@ -12156,18 +12164,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H380" s="39"/>
+      <c r="H380" s="39">
+        <v>1</v>
+      </c>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="20"/>
+      <c r="K380" s="48">
+        <v>45183</v>
+      </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B381" s="20"/>
+      <c r="A381" s="40"/>
+      <c r="B381" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="C381" s="13"/>
-      <c r="D381" s="39"/>
+      <c r="D381" s="39">
+        <v>1</v>
+      </c>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
       <c r="G381" s="13" t="str">
@@ -12177,11 +12191,13 @@
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
-      <c r="K381" s="20"/>
+      <c r="K381" s="48">
+        <v>45198</v>
+      </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -12199,7 +12215,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -12217,7 +12233,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -12235,7 +12251,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -12253,7 +12269,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -12271,7 +12287,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -12289,7 +12305,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -12307,7 +12323,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -12325,7 +12341,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12343,7 +12359,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -12361,7 +12377,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12379,7 +12395,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -12397,7 +12413,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -12415,7 +12431,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12432,7 +12448,9 @@
       <c r="K395" s="20"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="40"/>
+      <c r="A396" s="40">
+        <v>45627</v>
+      </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
       <c r="D396" s="39"/>
@@ -12542,6 +12560,22 @@
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" s="40"/>
+      <c r="B403" s="20"/>
+      <c r="C403" s="13"/>
+      <c r="D403" s="39"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="20"/>
+      <c r="G403" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H403" s="39"/>
+      <c r="I403" s="9"/>
+      <c r="J403" s="11"/>
+      <c r="K403" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="303">
   <si>
     <t>PERIOD</t>
   </si>
@@ -934,6 +934,15 @@
   </si>
   <si>
     <t>12/13,14/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-24)</t>
+  </si>
+  <si>
+    <t>UT(0-3-7)</t>
   </si>
 </sst>
 </file>
@@ -3337,7 +3346,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K404" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K407" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3715,12 +3724,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K404"/>
+  <dimension ref="A2:K407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A370" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="H380" sqref="H380"/>
+      <selection pane="bottomLeft" activeCell="F385" sqref="F385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,7 +3890,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.062999999999946</v>
+        <v>58.872999999999919</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3891,7 +3900,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>185.5</v>
+        <v>186.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12249,56 +12258,60 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C384" s="13">
-        <v>1.25</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C384" s="13"/>
       <c r="D384" s="39">
-        <v>2</v>
+        <v>0.39</v>
       </c>
       <c r="E384" s="9"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G384" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H384" s="39"/>
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
-      <c r="K384" s="20" t="s">
-        <v>299</v>
-      </c>
+      <c r="K384" s="48"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B385" s="20"/>
-      <c r="C385" s="13"/>
-      <c r="D385" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C385" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D385" s="39">
+        <v>2</v>
+      </c>
       <c r="E385" s="9"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G385" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H385" s="39"/>
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
-      <c r="K385" s="20"/>
+      <c r="K385" s="20" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B386" s="20"/>
+      <c r="A386" s="40"/>
+      <c r="B386" s="20" t="s">
+        <v>301</v>
+      </c>
       <c r="C386" s="13"/>
-      <c r="D386" s="39"/>
+      <c r="D386" s="39">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
       <c r="G386" s="13" t="str">
@@ -12312,16 +12325,18 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B387" s="20"/>
-      <c r="C387" s="13"/>
+      <c r="C387" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D387" s="39"/>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G387" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H387" s="39"/>
       <c r="I387" s="9"/>
@@ -12329,8 +12344,8 @@
       <c r="K387" s="20"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="40">
-        <v>45352</v>
+      <c r="A388" s="47" t="s">
+        <v>300</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -12348,7 +12363,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -12366,7 +12381,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12384,7 +12399,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -12402,7 +12417,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12420,7 +12435,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -12438,7 +12453,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -12456,7 +12471,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12474,7 +12489,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12492,7 +12507,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -12509,7 +12524,9 @@
       <c r="K397" s="20"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="40"/>
+      <c r="A398" s="40">
+        <v>45566</v>
+      </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
@@ -12525,7 +12542,9 @@
       <c r="K398" s="20"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="40"/>
+      <c r="A399" s="40">
+        <v>45597</v>
+      </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
       <c r="D399" s="39"/>
@@ -12541,7 +12560,9 @@
       <c r="K399" s="20"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="40"/>
+      <c r="A400" s="40">
+        <v>45627</v>
+      </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
@@ -12619,6 +12640,54 @@
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" s="40"/>
+      <c r="B405" s="20"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="39"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="20"/>
+      <c r="G405" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H405" s="39"/>
+      <c r="I405" s="9"/>
+      <c r="J405" s="11"/>
+      <c r="K405" s="20"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="40"/>
+      <c r="B406" s="20"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="39"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="20"/>
+      <c r="G406" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H406" s="39"/>
+      <c r="I406" s="9"/>
+      <c r="J406" s="11"/>
+      <c r="K406" s="20"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="40"/>
+      <c r="B407" s="20"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="39"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="20"/>
+      <c r="G407" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H407" s="39"/>
+      <c r="I407" s="9"/>
+      <c r="J407" s="11"/>
+      <c r="K407" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12736,14 +12805,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.24199999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="311">
   <si>
     <t>PERIOD</t>
   </si>
@@ -906,9 +906,6 @@
     <t>11/17,18</t>
   </si>
   <si>
-    <t>3/2,3/2023</t>
-  </si>
-  <si>
     <t>UT(0-0-50)</t>
   </si>
   <si>
@@ -933,9 +930,6 @@
     <t>UT(0-1-56)</t>
   </si>
   <si>
-    <t>12/13,14/2023</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
@@ -943,6 +937,36 @@
   </si>
   <si>
     <t>UT(0-3-7)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-1-13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
+  </si>
+  <si>
+    <t>UT(0-5-52)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-7)</t>
+  </si>
+  <si>
+    <t>3/2,3/2023 (3,6)</t>
+  </si>
+  <si>
+    <t>UT(1-4-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t>UT(0-4-52)</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1835,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1878,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1942,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +2002,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2068,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2131,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2229,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2288,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2353,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2396,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2471,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2657,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2723,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2781,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2847,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2903,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2978,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +3021,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3087,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3143,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3241,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3304,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3370,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K407" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K414" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3724,12 +3748,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K407"/>
+  <dimension ref="A2:K414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A370" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A376" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F385" sqref="F385"/>
+      <selection pane="bottomLeft" activeCell="F398" sqref="F398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,7 +3914,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.872999999999919</v>
+        <v>53.223999999999975</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11424,7 +11448,7 @@
         <v>44652</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C347" s="13">
         <v>1.25</v>
@@ -11448,7 +11472,7 @@
         <v>44682</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C348" s="13">
         <v>1.25</v>
@@ -11580,7 +11604,7 @@
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C354" s="13"/>
       <c r="D354" s="39">
@@ -11626,7 +11650,7 @@
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C356" s="13"/>
       <c r="D356" s="39">
@@ -11672,7 +11696,7 @@
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39">
@@ -11742,7 +11766,7 @@
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39">
@@ -11808,7 +11832,7 @@
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C364" s="13"/>
       <c r="D364" s="39">
@@ -11920,7 +11944,7 @@
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39">
@@ -11998,7 +12022,7 @@
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
       <c r="K372" s="20" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
@@ -12022,32 +12046,28 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C374" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D374" s="39"/>
+        <v>296</v>
+      </c>
+      <c r="C374" s="13"/>
+      <c r="D374" s="39">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G374" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H374" s="39"/>
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
-      <c r="K374" s="48">
-        <v>45016</v>
-      </c>
+      <c r="K374" s="48"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B375" s="20" t="s">
         <v>53</v>
@@ -12066,41 +12086,35 @@
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
       <c r="K375" s="48">
-        <v>45028</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C376" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D376" s="39"/>
+        <v>308</v>
+      </c>
+      <c r="C376" s="13"/>
+      <c r="D376" s="39">
+        <v>1.502</v>
+      </c>
       <c r="E376" s="9"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H376" s="39">
-        <v>1</v>
-      </c>
+      <c r="G376" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H376" s="39"/>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
-      <c r="K376" s="48">
-        <v>45044</v>
-      </c>
+      <c r="K376" s="48"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -12112,40 +12126,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H377" s="39">
-        <v>1</v>
-      </c>
+      <c r="H377" s="39"/>
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
       <c r="K377" s="48">
-        <v>45092</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B378" s="20"/>
-      <c r="C378" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D378" s="39"/>
+      <c r="A378" s="40"/>
+      <c r="B378" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C378" s="13"/>
+      <c r="D378" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
+      <c r="K378" s="48"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B379" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C379" s="13">
         <v>1.25</v>
       </c>
@@ -12156,161 +12170,163 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H379" s="39"/>
+      <c r="H379" s="39">
+        <v>1</v>
+      </c>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
-      <c r="K379" s="20"/>
+      <c r="K379" s="48">
+        <v>45044</v>
+      </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C380" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D380" s="39"/>
+        <v>305</v>
+      </c>
+      <c r="C380" s="13"/>
+      <c r="D380" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H380" s="39">
-        <v>1</v>
-      </c>
+      <c r="G380" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H380" s="39"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="48">
-        <v>45183</v>
-      </c>
+      <c r="K380" s="48"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="40"/>
+      <c r="A381" s="40">
+        <v>45078</v>
+      </c>
       <c r="B381" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C381" s="13"/>
-      <c r="D381" s="39">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C381" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D381" s="39"/>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H381" s="39"/>
+      <c r="G381" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H381" s="39">
+        <v>1</v>
+      </c>
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
       <c r="K381" s="48">
-        <v>45198</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C382" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D382" s="39"/>
+        <v>304</v>
+      </c>
+      <c r="C382" s="13"/>
+      <c r="D382" s="39">
+        <v>0.73299999999999998</v>
+      </c>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H382" s="39">
-        <v>1</v>
-      </c>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="39"/>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
-      <c r="K382" s="48">
-        <v>45225</v>
-      </c>
+      <c r="K382" s="48"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="40"/>
+      <c r="A383" s="40">
+        <v>45108</v>
+      </c>
       <c r="B383" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C383" s="13"/>
+        <v>303</v>
+      </c>
+      <c r="C383" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D383" s="39">
-        <v>1</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="E383" s="9"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G383" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H383" s="39"/>
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
-      <c r="K383" s="48">
-        <v>45236</v>
-      </c>
+      <c r="K383" s="20"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="40"/>
+      <c r="A384" s="40">
+        <v>45139</v>
+      </c>
       <c r="B384" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C384" s="13"/>
+        <v>231</v>
+      </c>
+      <c r="C384" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D384" s="39">
-        <v>0.39</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E384" s="9"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G384" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H384" s="39"/>
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
-      <c r="K384" s="48"/>
+      <c r="K384" s="20"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="C385" s="13">
         <v>1.25</v>
       </c>
-      <c r="D385" s="39">
-        <v>2</v>
-      </c>
+      <c r="D385" s="39"/>
       <c r="E385" s="9"/>
       <c r="F385" s="20"/>
       <c r="G385" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H385" s="39"/>
+      <c r="H385" s="39">
+        <v>1</v>
+      </c>
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
-      <c r="K385" s="20" t="s">
-        <v>299</v>
+      <c r="K385" s="48">
+        <v>45183</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="C386" s="13"/>
       <c r="D386" s="39">
-        <v>5.000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
@@ -12321,35 +12337,41 @@
       <c r="H386" s="39"/>
       <c r="I386" s="9"/>
       <c r="J386" s="11"/>
-      <c r="K386" s="20"/>
+      <c r="K386" s="48">
+        <v>45198</v>
+      </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B387" s="20"/>
-      <c r="C387" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D387" s="39"/>
+      <c r="A387" s="40"/>
+      <c r="B387" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C387" s="13"/>
+      <c r="D387" s="39">
+        <v>1</v>
+      </c>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H387" s="39"/>
       <c r="I387" s="9"/>
       <c r="J387" s="11"/>
-      <c r="K387" s="20"/>
+      <c r="K387" s="48">
+        <v>45182</v>
+      </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="B388" s="20"/>
+      <c r="A388" s="40"/>
+      <c r="B388" s="20" t="s">
+        <v>302</v>
+      </c>
       <c r="C388" s="13"/>
-      <c r="D388" s="39"/>
+      <c r="D388" s="39">
+        <v>1.1520000000000001</v>
+      </c>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
       <c r="G388" s="13" t="str">
@@ -12359,33 +12381,43 @@
       <c r="H388" s="39"/>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
-      <c r="K388" s="20"/>
+      <c r="K388" s="48"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B389" s="20"/>
-      <c r="C389" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C389" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D389" s="39"/>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H389" s="39"/>
+      <c r="G389" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H389" s="39">
+        <v>1</v>
+      </c>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
-      <c r="K389" s="20"/>
+      <c r="K389" s="48">
+        <v>45225</v>
+      </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B390" s="20"/>
+      <c r="A390" s="40"/>
+      <c r="B390" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="C390" s="13"/>
-      <c r="D390" s="39"/>
+      <c r="D390" s="39">
+        <v>1</v>
+      </c>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
       <c r="G390" s="13" t="str">
@@ -12395,15 +12427,19 @@
       <c r="H390" s="39"/>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="20"/>
+      <c r="K390" s="48">
+        <v>45236</v>
+      </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B391" s="20"/>
+      <c r="A391" s="40"/>
+      <c r="B391" s="20" t="s">
+        <v>300</v>
+      </c>
       <c r="C391" s="13"/>
-      <c r="D391" s="39"/>
+      <c r="D391" s="39">
+        <v>0.39</v>
+      </c>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
       <c r="G391" s="13" t="str">
@@ -12413,33 +12449,43 @@
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
-      <c r="K391" s="20"/>
+      <c r="K391" s="48"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B392" s="20"/>
-      <c r="C392" s="13"/>
-      <c r="D392" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B392" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C392" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D392" s="39">
+        <v>2</v>
+      </c>
       <c r="E392" s="9"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G392" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H392" s="39"/>
       <c r="I392" s="9"/>
       <c r="J392" s="11"/>
-      <c r="K392" s="20"/>
+      <c r="K392" s="20" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B393" s="20"/>
+      <c r="A393" s="40"/>
+      <c r="B393" s="20" t="s">
+        <v>299</v>
+      </c>
       <c r="C393" s="13"/>
-      <c r="D393" s="39"/>
+      <c r="D393" s="39">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
       <c r="G393" s="13" t="str">
@@ -12453,16 +12499,22 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B394" s="20"/>
-      <c r="C394" s="13"/>
-      <c r="D394" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B394" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C394" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D394" s="39">
+        <v>0.60799999999999998</v>
+      </c>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G394" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H394" s="39"/>
       <c r="I394" s="9"/>
@@ -12470,8 +12522,8 @@
       <c r="K394" s="20"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="40">
-        <v>45474</v>
+      <c r="A395" s="47" t="s">
+        <v>298</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12489,7 +12541,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45505</v>
+        <v>45292</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12507,7 +12559,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -12525,7 +12577,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -12543,7 +12595,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -12561,7 +12613,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -12578,7 +12630,9 @@
       <c r="K400" s="20"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="40"/>
+      <c r="A401" s="40">
+        <v>45444</v>
+      </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
@@ -12594,7 +12648,9 @@
       <c r="K401" s="20"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40"/>
+      <c r="A402" s="40">
+        <v>45474</v>
+      </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
       <c r="D402" s="39"/>
@@ -12610,7 +12666,9 @@
       <c r="K402" s="20"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="40"/>
+      <c r="A403" s="40">
+        <v>45505</v>
+      </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
       <c r="D403" s="39"/>
@@ -12626,7 +12684,9 @@
       <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="40"/>
+      <c r="A404" s="40">
+        <v>45536</v>
+      </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
@@ -12642,7 +12702,9 @@
       <c r="K404" s="20"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40"/>
+      <c r="A405" s="40">
+        <v>45566</v>
+      </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
@@ -12658,7 +12720,9 @@
       <c r="K405" s="20"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40"/>
+      <c r="A406" s="40">
+        <v>45597</v>
+      </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
@@ -12674,7 +12738,9 @@
       <c r="K406" s="20"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="40"/>
+      <c r="A407" s="40">
+        <v>45627</v>
+      </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
       <c r="D407" s="39"/>
@@ -12688,6 +12754,118 @@
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="40"/>
+      <c r="B408" s="20"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="39"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="20"/>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H408" s="39"/>
+      <c r="I408" s="9"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="20"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="40"/>
+      <c r="B409" s="20"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="39"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="20"/>
+      <c r="G409" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="39"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="20"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="40"/>
+      <c r="B410" s="20"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="39"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="20"/>
+      <c r="G410" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H410" s="39"/>
+      <c r="I410" s="9"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="20"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="40"/>
+      <c r="B411" s="20"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="39"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="20"/>
+      <c r="G411" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H411" s="39"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="20"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="40"/>
+      <c r="B412" s="20"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="39"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="20"/>
+      <c r="G412" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H412" s="39"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="20"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="40"/>
+      <c r="B413" s="20"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="39"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="20"/>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H413" s="39"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="20"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="40"/>
+      <c r="B414" s="20"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="39"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="20"/>
+      <c r="G414" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H414" s="39"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12801,18 +12979,16 @@
       <c r="B3" s="11">
         <v>46.75</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.39</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
